--- a/produtos2.xlsx
+++ b/produtos2.xlsx
@@ -25,7 +25,7 @@
     <t>Valor</t>
   </si>
   <si>
-    <t>Teclado Mecânico</t>
+    <t>Teclado Mecanico</t>
   </si>
   <si>
     <t>Mouse Gamer RGB</t>
@@ -40,7 +40,7 @@
     <t>Cabo HDMI 2m</t>
   </si>
   <si>
-    <t>Notebook i5 11ª Geração</t>
+    <t>Notebook i5 11ª Geracao</t>
   </si>
   <si>
     <t/>
